--- a/praktikum-pda/data_populasi_2021.xlsx
+++ b/praktikum-pda/data_populasi_2021.xlsx
@@ -54,28 +54,97 @@
     <t>regencies</t>
   </si>
   <si>
-    <t>JAWA TIMUR</t>
+    <t>ACEH</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>BANGKA BELITUNG</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>DI YOGYAKARTA</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
   </si>
   <si>
     <t>JAWA TENGAH</t>
   </si>
   <si>
-    <t>SUMATERA UTARA</t>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
   </si>
   <si>
     <t>PAPUA</t>
   </si>
   <si>
-    <t>JAWA BARAT</t>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
   </si>
   <si>
     <t>SULAWESI SELATAN</t>
   </si>
   <si>
-    <t>ACEH</t>
+    <t>SULAWESI TENGAH</t>
   </si>
   <si>
-    <t>NUSA TENGGARA TIMUR</t>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
   </si>
   <si>
     <t>SUMATERA BARAT</t>
@@ -84,76 +153,7 @@
     <t>SUMATERA SELATAN</t>
   </si>
   <si>
-    <t>SULAWESI TENGGARA</t>
-  </si>
-  <si>
-    <t>LAMPUNG</t>
-  </si>
-  <si>
-    <t>SULAWESI UTARA</t>
-  </si>
-  <si>
-    <t>KALIMANTAN BARAT</t>
-  </si>
-  <si>
-    <t>KALIMANTAN TENGAH</t>
-  </si>
-  <si>
-    <t>KALIMANTAN SELATAN</t>
-  </si>
-  <si>
-    <t>SULAWESI TENGAH</t>
-  </si>
-  <si>
-    <t>PAPUA BARAT</t>
-  </si>
-  <si>
-    <t>RIAU</t>
-  </si>
-  <si>
-    <t>JAMBI</t>
-  </si>
-  <si>
-    <t>MALUKU</t>
-  </si>
-  <si>
-    <t>NUSA TENGGARA BARAT</t>
-  </si>
-  <si>
-    <t>BENGKULU</t>
-  </si>
-  <si>
-    <t>MALUKU UTARA</t>
-  </si>
-  <si>
-    <t>KALIMANTAN TIMUR</t>
-  </si>
-  <si>
-    <t>BALI</t>
-  </si>
-  <si>
-    <t>BANTEN</t>
-  </si>
-  <si>
-    <t>KEPULAUAN RIAU</t>
-  </si>
-  <si>
-    <t>GORONTALO</t>
-  </si>
-  <si>
-    <t>SULAWESI BARAT</t>
-  </si>
-  <si>
-    <t>DKI JAKARTA</t>
-  </si>
-  <si>
-    <t>KALIMANTAN UTARA</t>
-  </si>
-  <si>
-    <t>DI YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>BANGKA BELITUNG</t>
+    <t>SUMATERA UTARA</t>
   </si>
 </sst>
 </file>
@@ -489,38 +489,38 @@
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>4.1063094E7</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.0485906E7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.0577188E7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1.1023024E7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1.8525947E7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>7720497.0</v>
+      <c r="B2" s="2">
+        <v>5347889.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2676698.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2671191.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1884540.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2486997.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>976352.0</v>
       </c>
       <c r="H2" s="2">
-        <v>48033.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>855.0</v>
+        <v>56839.0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>94.0</v>
       </c>
       <c r="J2" s="1">
-        <v>38.0</v>
+        <v>23.0</v>
       </c>
       <c r="K2" s="1">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="L2" s="1">
-        <v>29.0</v>
+        <v>18.0</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -541,38 +541,38 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.7313063E7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.8778596E7</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.8534467E7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.0518074E7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.7006533E7</v>
+      <c r="B3" s="2">
+        <v>4279129.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2145798.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2133331.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1185375.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1900254.0</v>
       </c>
       <c r="G3" s="2">
-        <v>9788451.0</v>
+        <v>1193500.0</v>
       </c>
       <c r="H3" s="2">
-        <v>34334.0</v>
+        <v>5590.0</v>
       </c>
       <c r="I3" s="2">
-        <v>1087.0</v>
+        <v>765.0</v>
       </c>
       <c r="J3" s="1">
-        <v>35.0</v>
+        <v>9.0</v>
       </c>
       <c r="K3" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" s="1">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -594,37 +594,41 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>1.5242297E7</v>
+        <v>1461893.0</v>
       </c>
       <c r="C4" s="2">
-        <v>7638329.0</v>
+        <v>748664.0</v>
       </c>
       <c r="D4" s="2">
-        <v>7603968.0</v>
+        <v>713229.0</v>
       </c>
       <c r="E4" s="2">
-        <v>5087744.0</v>
+        <f>86383+135028+142943+116726</f>
+        <v>481080</v>
       </c>
       <c r="F4" s="2">
-        <v>7070987.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>3083565.0</v>
+        <f>119820+109203+119323+127038+125814+99331</f>
+        <v>700529</v>
+      </c>
+      <c r="G4" s="1">
+        <f>81111+62247+52794+37987+23558+22587
+</f>
+        <v>280284</v>
       </c>
       <c r="H4" s="2">
-        <v>72460.0</v>
+        <v>16690.0</v>
       </c>
       <c r="I4" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>25.0</v>
+        <v>88.0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7.0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -646,89 +650,92 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>4313086.0</v>
+        <v>1.2030892E7</v>
       </c>
       <c r="C5" s="2">
-        <v>2289328.0</v>
+        <v>6110955.0</v>
       </c>
       <c r="D5" s="2">
-        <v>2023758.0</v>
+        <v>5919937.0</v>
       </c>
       <c r="E5" s="2">
-        <v>1188370.0</v>
+        <v>3827488.0</v>
       </c>
       <c r="F5" s="2">
-        <v>2407288.0</v>
+        <v>5963206.0</v>
       </c>
       <c r="G5" s="2">
-        <v>272362.0</v>
+        <v>2237615.0</v>
       </c>
       <c r="H5" s="2">
-        <v>312767.0</v>
+        <v>9352.0</v>
       </c>
       <c r="I5" s="2">
-        <v>14.0</v>
+        <v>1286.0</v>
       </c>
       <c r="J5" s="1">
-        <v>29.0</v>
+        <v>8.0</v>
       </c>
       <c r="K5" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L5" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+        <v>4.0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>4.8220094E7</v>
+        <v>2037019.0</v>
       </c>
       <c r="C6" s="2">
-        <v>2.442341E7</v>
+        <v>1040481.0</v>
       </c>
       <c r="D6" s="2">
-        <v>2.3796684E7</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.4978504E7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.2810165E7</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.0431424E7</v>
+        <v>996538.0</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(112581+179323+187945+173602)</f>
+        <v>653451</v>
+      </c>
+      <c r="F6" s="1">
+        <f>(176011+166254+167835+166056+164591+139275)</f>
+        <v>980022</v>
+      </c>
+      <c r="G6" s="1">
+        <f>(119610+94957+76915+48395+29865+33803)</f>
+        <v>403545</v>
       </c>
       <c r="H6" s="2">
-        <v>37040.0</v>
+        <v>20130.0</v>
       </c>
       <c r="I6" s="2">
-        <v>1302.0</v>
+        <v>101.0</v>
       </c>
       <c r="J6" s="1">
-        <v>27.0</v>
+        <v>10.0</v>
       </c>
       <c r="K6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="1">
         <v>9.0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>18.0</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -750,37 +757,40 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>9218736.0</v>
+        <v>3677446.0</v>
       </c>
       <c r="C7" s="2">
-        <v>4575422.0</v>
+        <v>1820400.0</v>
       </c>
       <c r="D7" s="2">
-        <v>4643314.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2977715.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4204883.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2036139.0</v>
+        <v>1857046.0</v>
+      </c>
+      <c r="E7" s="1">
+        <f>(170151+247623+273463+259833)</f>
+        <v>951070</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(263866+262364+247943+259948+285041+264982)</f>
+        <v>1584144</v>
+      </c>
+      <c r="G7" s="1">
+        <f>(267857+237022+207326+158550+107408+164069)</f>
+        <v>1142232</v>
       </c>
       <c r="H7" s="2">
-        <v>45704.0</v>
+        <v>3173.0</v>
       </c>
       <c r="I7" s="2">
-        <v>202.0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>24.0</v>
+        <v>1159.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5.0</v>
       </c>
       <c r="K7" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" s="1">
-        <v>21.0</v>
+        <v>4.0</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -802,37 +812,40 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>5347889.0</v>
+        <v>1.1261595E7</v>
       </c>
       <c r="C8" s="2">
-        <v>2676698.0</v>
+        <v>5655534.0</v>
       </c>
       <c r="D8" s="2">
-        <v>2671191.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1884540.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2486997.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>976352.0</v>
+        <v>5606061.0</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(642439+948586+963058+880664)</f>
+        <v>3434747</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(870096+850099+875562+954548+1007608+866571)</f>
+        <v>5424484</v>
+      </c>
+      <c r="G8" s="1">
+        <f>(754970+576440+438544+283403+180204+168802)</f>
+        <v>2402363</v>
       </c>
       <c r="H8" s="2">
-        <v>56839.0</v>
+        <v>661.0</v>
       </c>
       <c r="I8" s="2">
-        <v>94.0</v>
+        <v>17031.0</v>
       </c>
       <c r="J8" s="1">
-        <v>23.0</v>
+        <v>6.0</v>
       </c>
       <c r="K8" s="1">
         <v>5.0</v>
       </c>
       <c r="L8" s="1">
-        <v>18.0</v>
+        <v>1.0</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -854,37 +867,40 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>5489851.0</v>
+        <v>1200663.0</v>
       </c>
       <c r="C9" s="2">
-        <v>2749006.0</v>
+        <v>605977.0</v>
       </c>
       <c r="D9" s="2">
-        <v>2740845.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1885779.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2528106.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1075966.0</v>
+        <v>594686.0</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(67765+102379+106531+113160)</f>
+        <v>389835</v>
+      </c>
+      <c r="F9" s="1">
+        <f>(115047+105642+93141+84586+88872+86281)</f>
+        <v>573569</v>
+      </c>
+      <c r="G9" s="1">
+        <f>(74223+55898+41976+28927+18549+17686)</f>
+        <v>237259</v>
       </c>
       <c r="H9" s="2">
-        <v>46452.0</v>
+        <v>12045.0</v>
       </c>
       <c r="I9" s="2">
-        <v>118.0</v>
+        <v>100.0</v>
       </c>
       <c r="J9" s="1">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="K9" s="1">
         <v>1.0</v>
       </c>
       <c r="L9" s="1">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -906,37 +922,40 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>5604457.0</v>
+        <v>3603439.0</v>
       </c>
       <c r="C10" s="2">
-        <v>2815871.0</v>
+        <v>1834066.0</v>
       </c>
       <c r="D10" s="2">
-        <v>2788586.0</v>
+        <v>1769373.0</v>
       </c>
       <c r="E10" s="2">
-        <v>1820822.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2527611.0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1256024.0</v>
+        <f>(202753+326673+343686+286168)</f>
+        <v>1159280</v>
+      </c>
+      <c r="F10" s="1">
+        <f>(305628+289458+287743+301221+302955+255386)</f>
+        <v>1742391</v>
+      </c>
+      <c r="G10" s="1">
+        <f>(214962+163464+130141+86756+51966+54479)</f>
+        <v>701768</v>
       </c>
       <c r="H10" s="2">
-        <v>42137.0</v>
+        <v>49008.0</v>
       </c>
       <c r="I10" s="2">
-        <v>113.0</v>
+        <v>74.0</v>
       </c>
       <c r="J10" s="1">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="K10" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="L10" s="1">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -958,37 +977,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>8565814.0</v>
+        <v>4.8220094E7</v>
       </c>
       <c r="C11" s="2">
-        <v>4364258.0</v>
+        <v>2.442341E7</v>
       </c>
       <c r="D11" s="2">
-        <v>4201556.0</v>
+        <v>2.3796684E7</v>
       </c>
       <c r="E11" s="2">
-        <v>2765432.0</v>
+        <v>1.4978504E7</v>
       </c>
       <c r="F11" s="2">
-        <v>4060139.0</v>
+        <v>2.2810165E7</v>
       </c>
       <c r="G11" s="2">
-        <v>1740252.0</v>
+        <v>1.0431424E7</v>
       </c>
       <c r="H11" s="2">
-        <v>86769.0</v>
+        <v>37040.0</v>
       </c>
       <c r="I11" s="2">
-        <v>99.0</v>
+        <v>1302.0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.0</v>
+        <v>27.0</v>
       </c>
       <c r="K11" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1009,38 +1028,38 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
-        <v>2679179.0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1357522.0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1321657.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>964943.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1242662.0</v>
+      <c r="B12" s="1">
+        <v>3.7313063E7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8778596E7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.8534467E7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.0518074E7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.7006533E7</v>
       </c>
       <c r="G12" s="2">
-        <v>471.573</v>
+        <v>9788451.0</v>
       </c>
       <c r="H12" s="2">
-        <v>36158.0</v>
+        <v>34334.0</v>
       </c>
       <c r="I12" s="2">
-        <v>74.0</v>
+        <v>1087.0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="K12" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="L12" s="1">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1062,40 +1081,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>8109601.0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4547517.0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4334590.0</v>
+        <v>4.1063094E7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0485906E7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0577188E7</v>
       </c>
       <c r="E13" s="1">
-        <f>480031+779705+711268</f>
-        <v>1971004</v>
+        <v>1.1023024E7</v>
       </c>
       <c r="F13" s="1">
-        <f>715484+694859+710398+692740+621398</f>
-        <v>3434879</v>
+        <v>1.8525947E7</v>
       </c>
       <c r="G13" s="1">
-        <f>537712+429101+350560+231539+163552+190884</f>
-        <v>1903348</v>
+        <v>7720497.0</v>
       </c>
       <c r="H13" s="2">
-        <v>33575.0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>265.0</v>
+        <v>48033.0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>855.0</v>
       </c>
       <c r="J13" s="1">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="K13" s="1">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1116,41 +1132,38 @@
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1">
-        <v>2409921.0</v>
+      <c r="B14" s="2">
+        <v>5466942.0</v>
       </c>
       <c r="C14" s="2">
-        <v>1359963.0</v>
+        <v>2810468.0</v>
       </c>
       <c r="D14" s="2">
-        <v>1298035.0</v>
-      </c>
-      <c r="E14" s="1">
-        <f>103469+190644+206974+235729</f>
-        <v>736816</v>
-      </c>
-      <c r="F14" s="1">
-        <f>230819+218184+195084+184909+198287+202641</f>
-        <v>1229924</v>
-      </c>
-      <c r="G14" s="1">
-        <f>186386+154269+118485+96609+62929+72580</f>
-        <v>691258</v>
+        <v>2656474.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1795664.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2645244.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1026034.0</v>
       </c>
       <c r="H14" s="2">
-        <v>14511.0</v>
+        <v>147035.0</v>
       </c>
       <c r="I14" s="2">
-        <v>183.0</v>
+        <v>37.0</v>
       </c>
       <c r="J14" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="K14" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1172,37 +1185,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>5466942.0</v>
+        <v>4119824.0</v>
       </c>
       <c r="C15" s="2">
-        <v>2810468.0</v>
+        <v>2082688.0</v>
       </c>
       <c r="D15" s="2">
-        <v>2656474.0</v>
+        <v>2037136.0</v>
       </c>
       <c r="E15" s="2">
-        <v>1795664.0</v>
+        <v>1307898.0</v>
       </c>
       <c r="F15" s="2">
-        <v>2645244.0</v>
+        <v>1975517.0</v>
       </c>
       <c r="G15" s="2">
-        <v>1026034.0</v>
+        <v>836463.0</v>
       </c>
       <c r="H15" s="2">
-        <v>147035.0</v>
+        <v>37190.0</v>
       </c>
       <c r="I15" s="2">
-        <v>37.0</v>
+        <v>111.0</v>
       </c>
       <c r="J15" s="1">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="K15" s="1">
         <v>2.0</v>
       </c>
       <c r="L15" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1276,37 +1289,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>4119824.0</v>
+        <v>3849832.0</v>
       </c>
       <c r="C17" s="2">
-        <v>2082688.0</v>
+        <v>1995324.0</v>
       </c>
       <c r="D17" s="2">
-        <v>2037136.0</v>
+        <v>1854508.0</v>
       </c>
       <c r="E17" s="2">
-        <v>1307898.0</v>
+        <v>1305634.0</v>
       </c>
       <c r="F17" s="2">
-        <v>1975517.0</v>
+        <v>1872062.0</v>
       </c>
       <c r="G17" s="2">
-        <v>836463.0</v>
+        <v>672136.0</v>
       </c>
       <c r="H17" s="2">
-        <v>37190.0</v>
+        <v>127907.0</v>
       </c>
       <c r="I17" s="2">
-        <v>111.0</v>
+        <v>30.0</v>
       </c>
       <c r="J17" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="K17" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L17" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1328,36 +1341,39 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>3051754.0</v>
+        <v>5466942.0</v>
       </c>
       <c r="C18" s="2">
-        <v>1566691.0</v>
+        <v>365008.0</v>
       </c>
       <c r="D18" s="2">
-        <v>1485063.0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>995721.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1458038.0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>597996.0</v>
+        <v>332995.0</v>
+      </c>
+      <c r="E18" s="1">
+        <f>(44127+69239+71646+59496)</f>
+        <v>244508</v>
+      </c>
+      <c r="F18" s="1">
+        <f>(62473+59102+55594+56482+57102+47552)</f>
+        <v>338305</v>
+      </c>
+      <c r="G18" s="1">
+        <f>(39890+27499+19772+12546+7624+7858)</f>
+        <v>115189</v>
       </c>
       <c r="H18" s="2">
-        <v>61237.0</v>
+        <v>147035.0</v>
       </c>
       <c r="I18" s="2">
-        <v>50.0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L18" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="L18" s="2">
         <v>12.0</v>
       </c>
       <c r="M18" s="3"/>
@@ -1380,89 +1396,92 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>1150468.0</v>
+        <v>2082785.0</v>
       </c>
       <c r="C19" s="2">
-        <v>599890.0</v>
+        <v>1060044.0</v>
       </c>
       <c r="D19" s="2">
-        <v>550578.0</v>
+        <v>1022741.0</v>
       </c>
       <c r="E19" s="2">
-        <v>400408.0</v>
+        <v>698328.0</v>
       </c>
       <c r="F19" s="2">
-        <v>478467.0</v>
+        <v>1060964.0</v>
       </c>
       <c r="G19" s="2">
-        <v>167822.0</v>
+        <v>323493.0</v>
       </c>
       <c r="H19" s="2">
-        <v>99505.0</v>
+        <v>8273.0</v>
       </c>
       <c r="I19" s="2">
-        <v>12.0</v>
+        <v>252.0</v>
       </c>
       <c r="J19" s="1">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="K19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L19" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+        <v>5.0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2">
-        <v>6574932.0</v>
+      <c r="B20" s="1">
+        <v>8109601.0</v>
       </c>
       <c r="C20" s="2">
-        <v>3360287.0</v>
+        <v>4547517.0</v>
       </c>
       <c r="D20" s="2">
-        <v>3214645.0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2270184.0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3179321.0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1125427.0</v>
+        <v>4334590.0</v>
+      </c>
+      <c r="E20" s="1">
+        <f>480031+779705+711268</f>
+        <v>1971004</v>
+      </c>
+      <c r="F20" s="1">
+        <f>715484+694859+710398+692740+621398</f>
+        <v>3434879</v>
+      </c>
+      <c r="G20" s="1">
+        <f>537712+429101+350560+231539+163552+190884</f>
+        <v>1903348</v>
       </c>
       <c r="H20" s="2">
-        <v>89935.0</v>
+        <v>33575.0</v>
       </c>
       <c r="I20" s="2">
-        <v>73.0</v>
+        <v>265.0</v>
       </c>
       <c r="J20" s="1">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="K20" s="1">
         <v>2.0</v>
       </c>
       <c r="L20" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1484,31 +1503,31 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>3603439.0</v>
+        <v>1880666.0</v>
       </c>
       <c r="C21" s="2">
-        <v>1834066.0</v>
+        <v>948625.0</v>
       </c>
       <c r="D21" s="2">
-        <v>1769373.0</v>
-      </c>
-      <c r="E21" s="2">
-        <f>(202753+326673+343686+286168)</f>
-        <v>1159280</v>
+        <v>932041.0</v>
+      </c>
+      <c r="E21" s="1">
+        <f>(85424+179881+199342+208610)</f>
+        <v>673257</v>
       </c>
       <c r="F21" s="1">
-        <f>(305628+289458+287743+301221+302955+255386)</f>
-        <v>1742391</v>
+        <f>(190961+155424+141816+141926+129411+109027)</f>
+        <v>868565</v>
       </c>
       <c r="G21" s="1">
-        <f>(214962+163464+130141+86756+51966+54479)</f>
-        <v>701768</v>
+        <f>(91833+74656+62204+44323+29405+36423)</f>
+        <v>338844</v>
       </c>
       <c r="H21" s="2">
-        <v>49008.0</v>
+        <v>46150.0</v>
       </c>
       <c r="I21" s="2">
-        <v>74.0</v>
+        <v>41.0</v>
       </c>
       <c r="J21" s="1">
         <v>11.0</v>
@@ -1539,40 +1558,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>1880666.0</v>
+        <v>1323927.0</v>
       </c>
       <c r="C22" s="2">
-        <v>948625.0</v>
+        <v>678715.0</v>
       </c>
       <c r="D22" s="2">
-        <v>932041.0</v>
-      </c>
-      <c r="E22" s="1">
-        <f>(85424+179881+199342+208610)</f>
-        <v>673257</v>
-      </c>
-      <c r="F22" s="1">
-        <f>(190961+155424+141816+141926+129411+109027)</f>
-        <v>868565</v>
-      </c>
-      <c r="G22" s="1">
-        <f>(91833+74656+62204+44323+29405+36423)</f>
-        <v>338844</v>
+        <v>645212.0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>456086.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>648962.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>218879.0</v>
       </c>
       <c r="H22" s="2">
-        <v>46150.0</v>
+        <v>32989.0</v>
       </c>
       <c r="I22" s="2">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="J22" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="K22" s="1">
         <v>2.0</v>
       </c>
       <c r="L22" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1649,40 +1665,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>2037019.0</v>
+        <v>5489851.0</v>
       </c>
       <c r="C24" s="2">
-        <v>1040481.0</v>
+        <v>2749006.0</v>
       </c>
       <c r="D24" s="2">
-        <v>996538.0</v>
-      </c>
-      <c r="E24" s="1">
-        <f>(112581+179323+187945+173602)</f>
-        <v>653451</v>
-      </c>
-      <c r="F24" s="1">
-        <f>(176011+166254+167835+166056+164591+139275)</f>
-        <v>980022</v>
-      </c>
-      <c r="G24" s="1">
-        <f>(119610+94957+76915+48395+29865+33803)</f>
-        <v>403545</v>
+        <v>2740845.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1885779.0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2528106.0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1075966.0</v>
       </c>
       <c r="H24" s="2">
-        <v>20130.0</v>
+        <v>46452.0</v>
       </c>
       <c r="I24" s="2">
-        <v>101.0</v>
+        <v>118.0</v>
       </c>
       <c r="J24" s="1">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="K24" s="1">
         <v>1.0</v>
       </c>
       <c r="L24" s="1">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1704,37 +1717,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>1323927.0</v>
+        <v>4313086.0</v>
       </c>
       <c r="C25" s="2">
-        <v>678715.0</v>
+        <v>2289328.0</v>
       </c>
       <c r="D25" s="2">
-        <v>645212.0</v>
+        <v>2023758.0</v>
       </c>
       <c r="E25" s="2">
-        <v>456086.0</v>
+        <v>1188370.0</v>
       </c>
       <c r="F25" s="2">
-        <v>648962.0</v>
+        <v>2407288.0</v>
       </c>
       <c r="G25" s="2">
-        <v>218879.0</v>
+        <v>272362.0</v>
       </c>
       <c r="H25" s="2">
-        <v>32989.0</v>
+        <v>312767.0</v>
       </c>
       <c r="I25" s="2">
-        <v>40.0</v>
+        <v>14.0</v>
       </c>
       <c r="J25" s="1">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="K25" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L25" s="1">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -1756,37 +1769,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>3849832.0</v>
+        <v>1150468.0</v>
       </c>
       <c r="C26" s="2">
-        <v>1995324.0</v>
+        <v>599890.0</v>
       </c>
       <c r="D26" s="2">
-        <v>1854508.0</v>
+        <v>550578.0</v>
       </c>
       <c r="E26" s="2">
-        <v>1305634.0</v>
+        <v>400408.0</v>
       </c>
       <c r="F26" s="2">
-        <v>1872062.0</v>
+        <v>478467.0</v>
       </c>
       <c r="G26" s="2">
-        <v>672136.0</v>
+        <v>167822.0</v>
       </c>
       <c r="H26" s="2">
-        <v>127907.0</v>
+        <v>99505.0</v>
       </c>
       <c r="I26" s="2">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="J26" s="1">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="K26" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="L26" s="1">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1808,37 +1821,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>4279129.0</v>
+        <v>6574932.0</v>
       </c>
       <c r="C27" s="2">
-        <v>2145798.0</v>
+        <v>3360287.0</v>
       </c>
       <c r="D27" s="2">
-        <v>2133331.0</v>
+        <v>3214645.0</v>
       </c>
       <c r="E27" s="2">
-        <v>1185375.0</v>
+        <v>2270184.0</v>
       </c>
       <c r="F27" s="2">
-        <v>1900254.0</v>
+        <v>3179321.0</v>
       </c>
       <c r="G27" s="2">
-        <v>1193500.0</v>
+        <v>1125427.0</v>
       </c>
       <c r="H27" s="2">
-        <v>5590.0</v>
+        <v>89935.0</v>
       </c>
       <c r="I27" s="2">
-        <v>765.0</v>
+        <v>73.0</v>
       </c>
       <c r="J27" s="1">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="K27" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L27" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1860,144 +1873,144 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>1.2030892E7</v>
+        <v>1442225.0</v>
       </c>
       <c r="C28" s="2">
-        <v>6110955.0</v>
+        <v>732436.0</v>
       </c>
       <c r="D28" s="2">
-        <v>5919937.0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3827488.0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>5963206.0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2237615.0</v>
+        <v>709789.0</v>
+      </c>
+      <c r="E28" s="1">
+        <f>(86265+134991+141799+155136)</f>
+        <v>518191</v>
+      </c>
+      <c r="F28" s="1">
+        <f>(145923+119531+106789+105002+101584+89776)</f>
+        <v>668605</v>
+      </c>
+      <c r="G28" s="1">
+        <f>(80779+54908+41953+28461+21019+28309)</f>
+        <v>255429</v>
       </c>
       <c r="H28" s="2">
-        <v>9352.0</v>
+        <v>16589.0</v>
       </c>
       <c r="I28" s="2">
-        <v>1286.0</v>
+        <v>87.0</v>
       </c>
       <c r="J28" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="K28" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.0</v>
       </c>
       <c r="L28" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
+        <v>6.0</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>2082785.0</v>
+        <v>9218736.0</v>
       </c>
       <c r="C29" s="2">
-        <v>1060044.0</v>
+        <v>4575422.0</v>
       </c>
       <c r="D29" s="2">
-        <v>1022741.0</v>
+        <v>4643314.0</v>
       </c>
       <c r="E29" s="2">
-        <v>698328.0</v>
+        <v>2977715.0</v>
       </c>
       <c r="F29" s="2">
-        <v>1060964.0</v>
+        <v>4204883.0</v>
       </c>
       <c r="G29" s="2">
-        <v>323493.0</v>
+        <v>2036139.0</v>
       </c>
       <c r="H29" s="2">
-        <v>8273.0</v>
+        <v>45704.0</v>
       </c>
       <c r="I29" s="2">
-        <v>252.0</v>
+        <v>202.0</v>
       </c>
       <c r="J29" s="1">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="K29" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+        <v>21.0</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>1200663.0</v>
+        <v>3051754.0</v>
       </c>
       <c r="C30" s="2">
-        <v>605977.0</v>
+        <v>1566691.0</v>
       </c>
       <c r="D30" s="2">
-        <v>594686.0</v>
-      </c>
-      <c r="E30" s="1">
-        <f>(67765+102379+106531+113160)</f>
-        <v>389835</v>
-      </c>
-      <c r="F30" s="1">
-        <f>(115047+105642+93141+84586+88872+86281)</f>
-        <v>573569</v>
-      </c>
-      <c r="G30" s="1">
-        <f>(74223+55898+41976+28927+18549+17686)</f>
-        <v>237259</v>
+        <v>1485063.0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>995721.0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1458038.0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>597996.0</v>
       </c>
       <c r="H30" s="2">
-        <v>12045.0</v>
+        <v>61237.0</v>
       </c>
       <c r="I30" s="2">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="J30" s="1">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="K30" s="1">
         <v>1.0</v>
       </c>
       <c r="L30" s="1">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2019,40 +2032,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>1442225.0</v>
+        <v>2679179.0</v>
       </c>
       <c r="C31" s="2">
-        <v>732436.0</v>
+        <v>1357522.0</v>
       </c>
       <c r="D31" s="2">
-        <v>709789.0</v>
-      </c>
-      <c r="E31" s="1">
-        <f>(86265+134991+141799+155136)</f>
-        <v>518191</v>
-      </c>
-      <c r="F31" s="1">
-        <f>(145923+119531+106789+105002+101584+89776)</f>
-        <v>668605</v>
-      </c>
-      <c r="G31" s="1">
-        <f>(80779+54908+41953+28461+21019+28309)</f>
-        <v>255429</v>
+        <v>1321657.0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>964943.0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1242662.0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>471.573</v>
       </c>
       <c r="H31" s="2">
-        <v>16589.0</v>
+        <v>36158.0</v>
       </c>
       <c r="I31" s="2">
-        <v>87.0</v>
+        <v>74.0</v>
       </c>
       <c r="J31" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>2.0</v>
       </c>
       <c r="L31" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2073,41 +2083,41 @@
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="2">
-        <v>1.1261595E7</v>
+      <c r="B32" s="1">
+        <v>2409921.0</v>
       </c>
       <c r="C32" s="2">
-        <v>5655534.0</v>
+        <v>1359963.0</v>
       </c>
       <c r="D32" s="2">
-        <v>5606061.0</v>
+        <v>1298035.0</v>
       </c>
       <c r="E32" s="1">
-        <f>(642439+948586+963058+880664)</f>
-        <v>3434747</v>
+        <f>103469+190644+206974+235729</f>
+        <v>736816</v>
       </c>
       <c r="F32" s="1">
-        <f>(870096+850099+875562+954548+1007608+866571)</f>
-        <v>5424484</v>
+        <f>230819+218184+195084+184909+198287+202641</f>
+        <v>1229924</v>
       </c>
       <c r="G32" s="1">
-        <f>(754970+576440+438544+283403+180204+168802)</f>
-        <v>2402363</v>
+        <f>186386+154269+118485+96609+62929+72580</f>
+        <v>691258</v>
       </c>
       <c r="H32" s="2">
-        <v>661.0</v>
+        <v>14511.0</v>
       </c>
       <c r="I32" s="2">
-        <v>17031.0</v>
+        <v>183.0</v>
       </c>
       <c r="J32" s="1">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="K32" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="L32" s="1">
-        <v>1.0</v>
+        <v>11.0</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2129,39 +2139,36 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>5466942.0</v>
+        <v>5604457.0</v>
       </c>
       <c r="C33" s="2">
-        <v>365008.0</v>
+        <v>2815871.0</v>
       </c>
       <c r="D33" s="2">
-        <v>332995.0</v>
-      </c>
-      <c r="E33" s="1">
-        <f>(44127+69239+71646+59496)</f>
-        <v>244508</v>
-      </c>
-      <c r="F33" s="1">
-        <f>(62473+59102+55594+56482+57102+47552)</f>
-        <v>338305</v>
-      </c>
-      <c r="G33" s="1">
-        <f>(39890+27499+19772+12546+7624+7858)</f>
-        <v>115189</v>
+        <v>2788586.0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1820822.0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2527611.0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1256024.0</v>
       </c>
       <c r="H33" s="2">
-        <v>147035.0</v>
+        <v>42137.0</v>
       </c>
       <c r="I33" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="L33" s="2">
+        <v>113.0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L33" s="1">
         <v>12.0</v>
       </c>
       <c r="M33" s="3"/>
@@ -2184,40 +2191,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>3677446.0</v>
+        <v>8565814.0</v>
       </c>
       <c r="C34" s="2">
-        <v>1820400.0</v>
+        <v>4364258.0</v>
       </c>
       <c r="D34" s="2">
-        <v>1857046.0</v>
-      </c>
-      <c r="E34" s="1">
-        <f>(170151+247623+273463+259833)</f>
-        <v>951070</v>
-      </c>
-      <c r="F34" s="1">
-        <f>(263866+262364+247943+259948+285041+264982)</f>
-        <v>1584144</v>
-      </c>
-      <c r="G34" s="1">
-        <f>(267857+237022+207326+158550+107408+164069)</f>
-        <v>1142232</v>
+        <v>4201556.0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2765432.0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4060139.0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1740252.0</v>
       </c>
       <c r="H34" s="2">
-        <v>3173.0</v>
+        <v>86769.0</v>
       </c>
       <c r="I34" s="2">
-        <v>1159.0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5.0</v>
+        <v>99.0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>17.0</v>
       </c>
       <c r="K34" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L34" s="1">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -2239,41 +2243,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>1461893.0</v>
+        <v>1.5242297E7</v>
       </c>
       <c r="C35" s="2">
-        <v>748664.0</v>
+        <v>7638329.0</v>
       </c>
       <c r="D35" s="2">
-        <v>713229.0</v>
+        <v>7603968.0</v>
       </c>
       <c r="E35" s="2">
-        <f>86383+135028+142943+116726</f>
-        <v>481080</v>
+        <v>5087744.0</v>
       </c>
       <c r="F35" s="2">
-        <f>119820+109203+119323+127038+125814+99331</f>
-        <v>700529</v>
-      </c>
-      <c r="G35" s="1">
-        <f>81111+62247+52794+37987+23558+22587
-</f>
-        <v>280284</v>
+        <v>7070987.0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3083565.0</v>
       </c>
       <c r="H35" s="2">
-        <v>16690.0</v>
+        <v>72460.0</v>
       </c>
       <c r="I35" s="2">
-        <v>88.0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>7.0</v>
+        <v>210.0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="L35" s="1">
+        <v>25.0</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -2318,958 +2318,6 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
-      <c r="Y70" s="3"/>
-      <c r="Z70" s="3"/>
-    </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>

--- a/praktikum-pda/data_populasi_2021.xlsx
+++ b/praktikum-pda/data_populasi_2021.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mijR/yVw3oXJKgHYvrHH1a3xcWQYQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhtX8/NDxlvD4TiXR5d58Rp3L7EeA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -105,9 +105,6 @@
     <t>KALIMANTAN UTARA</t>
   </si>
   <si>
-    <t>KEPULAUAN RIAU</t>
-  </si>
-  <si>
     <t>LAMPUNG</t>
   </si>
   <si>
@@ -123,13 +120,10 @@
     <t>NUSA TENGGARA TIMUR</t>
   </si>
   <si>
-    <t>PAPUA</t>
+    <t>RIAU</t>
   </si>
   <si>
-    <t>PAPUA BARAT</t>
-  </si>
-  <si>
-    <t>RIAU</t>
+    <t>KEPULAUAN RIAU</t>
   </si>
   <si>
     <t>SULAWESI BARAT</t>
@@ -155,20 +149,31 @@
   <si>
     <t>SUMATERA UTARA</t>
   </si>
+  <si>
+    <t>IRIAN JAYA BARAT</t>
+  </si>
+  <si>
+    <t>IRIAN JAYA TIMUR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +186,12 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -188,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -203,6 +214,24 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1395,93 +1424,96 @@
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2">
-        <v>2082785.0</v>
+      <c r="B19" s="1">
+        <v>8109601.0</v>
       </c>
       <c r="C19" s="2">
-        <v>1060044.0</v>
+        <v>4547517.0</v>
       </c>
       <c r="D19" s="2">
-        <v>1022741.0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>698328.0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1060964.0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>323493.0</v>
+        <v>4334590.0</v>
+      </c>
+      <c r="E19" s="1">
+        <f>480031+779705+711268</f>
+        <v>1971004</v>
+      </c>
+      <c r="F19" s="1">
+        <f>715484+694859+710398+692740+621398</f>
+        <v>3434879</v>
+      </c>
+      <c r="G19" s="1">
+        <f>537712+429101+350560+231539+163552+190884</f>
+        <v>1903348</v>
       </c>
       <c r="H19" s="2">
-        <v>8273.0</v>
+        <v>33575.0</v>
       </c>
       <c r="I19" s="2">
-        <v>252.0</v>
+        <v>265.0</v>
       </c>
       <c r="J19" s="1">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="K19" s="1">
         <v>2.0</v>
       </c>
       <c r="L19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+        <v>13.0</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
-        <v>8109601.0</v>
+      <c r="B20" s="2">
+        <v>1880666.0</v>
       </c>
       <c r="C20" s="2">
-        <v>4547517.0</v>
+        <v>948625.0</v>
       </c>
       <c r="D20" s="2">
-        <v>4334590.0</v>
+        <v>932041.0</v>
       </c>
       <c r="E20" s="1">
-        <f>480031+779705+711268</f>
-        <v>1971004</v>
+        <f>(85424+179881+199342+208610)</f>
+        <v>673257</v>
       </c>
       <c r="F20" s="1">
-        <f>715484+694859+710398+692740+621398</f>
-        <v>3434879</v>
+        <f>(190961+155424+141816+141926+129411+109027)</f>
+        <v>868565</v>
       </c>
       <c r="G20" s="1">
-        <f>537712+429101+350560+231539+163552+190884</f>
-        <v>1903348</v>
+        <f>(91833+74656+62204+44323+29405+36423)</f>
+        <v>338844</v>
       </c>
       <c r="H20" s="2">
-        <v>33575.0</v>
+        <v>46150.0</v>
       </c>
       <c r="I20" s="2">
-        <v>265.0</v>
+        <v>41.0</v>
       </c>
       <c r="J20" s="1">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="K20" s="1">
         <v>2.0</v>
       </c>
       <c r="L20" s="1">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1503,40 +1535,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>1880666.0</v>
+        <v>1323927.0</v>
       </c>
       <c r="C21" s="2">
-        <v>948625.0</v>
+        <v>678715.0</v>
       </c>
       <c r="D21" s="2">
-        <v>932041.0</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(85424+179881+199342+208610)</f>
-        <v>673257</v>
-      </c>
-      <c r="F21" s="1">
-        <f>(190961+155424+141816+141926+129411+109027)</f>
-        <v>868565</v>
-      </c>
-      <c r="G21" s="1">
-        <f>(91833+74656+62204+44323+29405+36423)</f>
-        <v>338844</v>
+        <v>645212.0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>456086.0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>648962.0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>218879.0</v>
       </c>
       <c r="H21" s="2">
-        <v>46150.0</v>
+        <v>32989.0</v>
       </c>
       <c r="I21" s="2">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="J21" s="1">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="K21" s="1">
         <v>2.0</v>
       </c>
       <c r="L21" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -1558,28 +1587,31 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>1323927.0</v>
+        <v>5432209.0</v>
       </c>
       <c r="C22" s="2">
-        <v>678715.0</v>
+        <v>2706822.0</v>
       </c>
       <c r="D22" s="2">
-        <v>645212.0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>456086.0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>648962.0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>218879.0</v>
+        <v>2725387.0</v>
+      </c>
+      <c r="E22" s="1">
+        <f>(333158+518572+516469+417646)</f>
+        <v>1785845</v>
+      </c>
+      <c r="F22" s="1">
+        <f>(443669+425121+444289+458607+440577+370503)</f>
+        <v>2582766</v>
+      </c>
+      <c r="G22" s="1">
+        <f>(321222+230963+191545+125864+90679+103325)</f>
+        <v>1063598</v>
       </c>
       <c r="H22" s="2">
-        <v>32989.0</v>
+        <v>19677.0</v>
       </c>
       <c r="I22" s="2">
-        <v>40.0</v>
+        <v>276.0</v>
       </c>
       <c r="J22" s="1">
         <v>10.0</v>
@@ -1610,40 +1642,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>5432209.0</v>
+        <v>5489851.0</v>
       </c>
       <c r="C23" s="2">
-        <v>2706822.0</v>
+        <v>2749006.0</v>
       </c>
       <c r="D23" s="2">
-        <v>2725387.0</v>
-      </c>
-      <c r="E23" s="1">
-        <f>(333158+518572+516469+417646)</f>
-        <v>1785845</v>
-      </c>
-      <c r="F23" s="1">
-        <f>(443669+425121+444289+458607+440577+370503)</f>
-        <v>2582766</v>
-      </c>
-      <c r="G23" s="1">
-        <f>(321222+230963+191545+125864+90679+103325)</f>
-        <v>1063598</v>
+        <v>2740845.0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1885779.0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2528106.0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1075966.0</v>
       </c>
       <c r="H23" s="2">
-        <v>19677.0</v>
+        <v>46452.0</v>
       </c>
       <c r="I23" s="2">
-        <v>276.0</v>
+        <v>118.0</v>
       </c>
       <c r="J23" s="1">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="K23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L23" s="1">
-        <v>8.0</v>
+        <v>21.0</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -1665,37 +1694,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>5489851.0</v>
+        <v>6574932.0</v>
       </c>
       <c r="C24" s="2">
-        <v>2749006.0</v>
+        <v>3360287.0</v>
       </c>
       <c r="D24" s="2">
-        <v>2740845.0</v>
+        <v>3214645.0</v>
       </c>
       <c r="E24" s="2">
-        <v>1885779.0</v>
+        <v>2270184.0</v>
       </c>
       <c r="F24" s="2">
-        <v>2528106.0</v>
+        <v>3179321.0</v>
       </c>
       <c r="G24" s="2">
-        <v>1075966.0</v>
+        <v>1125427.0</v>
       </c>
       <c r="H24" s="2">
-        <v>46452.0</v>
+        <v>89935.0</v>
       </c>
       <c r="I24" s="2">
-        <v>118.0</v>
+        <v>73.0</v>
       </c>
       <c r="J24" s="1">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="K24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L24" s="1">
-        <v>21.0</v>
+        <v>10.0</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1717,89 +1746,92 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>4313086.0</v>
+        <v>2082785.0</v>
       </c>
       <c r="C25" s="2">
-        <v>2289328.0</v>
+        <v>1060044.0</v>
       </c>
       <c r="D25" s="2">
-        <v>2023758.0</v>
+        <v>1022741.0</v>
       </c>
       <c r="E25" s="2">
-        <v>1188370.0</v>
+        <v>698328.0</v>
       </c>
       <c r="F25" s="2">
-        <v>2407288.0</v>
+        <v>1060964.0</v>
       </c>
       <c r="G25" s="2">
-        <v>272362.0</v>
+        <v>323493.0</v>
       </c>
       <c r="H25" s="2">
-        <v>312767.0</v>
+        <v>8273.0</v>
       </c>
       <c r="I25" s="2">
-        <v>14.0</v>
+        <v>252.0</v>
       </c>
       <c r="J25" s="1">
-        <v>29.0</v>
+        <v>7.0</v>
       </c>
       <c r="K25" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L25" s="1">
-        <v>28.0</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+        <v>5.0</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>1150468.0</v>
+        <v>1442225.0</v>
       </c>
       <c r="C26" s="2">
-        <v>599890.0</v>
+        <v>732436.0</v>
       </c>
       <c r="D26" s="2">
-        <v>550578.0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>400408.0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>478467.0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>167822.0</v>
+        <v>709789.0</v>
+      </c>
+      <c r="E26" s="1">
+        <f>(86265+134991+141799+155136)</f>
+        <v>518191</v>
+      </c>
+      <c r="F26" s="1">
+        <f>(145923+119531+106789+105002+101584+89776)</f>
+        <v>668605</v>
+      </c>
+      <c r="G26" s="1">
+        <f>(80779+54908+41953+28461+21019+28309)</f>
+        <v>255429</v>
       </c>
       <c r="H26" s="2">
-        <v>99505.0</v>
+        <v>16589.0</v>
       </c>
       <c r="I26" s="2">
-        <v>12.0</v>
+        <v>87.0</v>
       </c>
       <c r="J26" s="1">
-        <v>13.0</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.0</v>
       </c>
       <c r="L26" s="1">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -1821,37 +1853,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>6574932.0</v>
+        <v>9218736.0</v>
       </c>
       <c r="C27" s="2">
-        <v>3360287.0</v>
+        <v>4575422.0</v>
       </c>
       <c r="D27" s="2">
-        <v>3214645.0</v>
+        <v>4643314.0</v>
       </c>
       <c r="E27" s="2">
-        <v>2270184.0</v>
+        <v>2977715.0</v>
       </c>
       <c r="F27" s="2">
-        <v>3179321.0</v>
+        <v>4204883.0</v>
       </c>
       <c r="G27" s="2">
-        <v>1125427.0</v>
+        <v>2036139.0</v>
       </c>
       <c r="H27" s="2">
-        <v>89935.0</v>
+        <v>45704.0</v>
       </c>
       <c r="I27" s="2">
-        <v>73.0</v>
+        <v>202.0</v>
       </c>
       <c r="J27" s="1">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="K27" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L27" s="1">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -1873,40 +1905,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>1442225.0</v>
+        <v>3051754.0</v>
       </c>
       <c r="C28" s="2">
-        <v>732436.0</v>
+        <v>1566691.0</v>
       </c>
       <c r="D28" s="2">
-        <v>709789.0</v>
-      </c>
-      <c r="E28" s="1">
-        <f>(86265+134991+141799+155136)</f>
-        <v>518191</v>
-      </c>
-      <c r="F28" s="1">
-        <f>(145923+119531+106789+105002+101584+89776)</f>
-        <v>668605</v>
-      </c>
-      <c r="G28" s="1">
-        <f>(80779+54908+41953+28461+21019+28309)</f>
-        <v>255429</v>
+        <v>1485063.0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>995721.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1458038.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>597996.0</v>
       </c>
       <c r="H28" s="2">
-        <v>16589.0</v>
+        <v>61237.0</v>
       </c>
       <c r="I28" s="2">
-        <v>87.0</v>
+        <v>50.0</v>
       </c>
       <c r="J28" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1.0</v>
       </c>
       <c r="L28" s="1">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -1928,37 +1957,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>9218736.0</v>
+        <v>2679179.0</v>
       </c>
       <c r="C29" s="2">
-        <v>4575422.0</v>
+        <v>1357522.0</v>
       </c>
       <c r="D29" s="2">
-        <v>4643314.0</v>
+        <v>1321657.0</v>
       </c>
       <c r="E29" s="2">
-        <v>2977715.0</v>
+        <v>964943.0</v>
       </c>
       <c r="F29" s="2">
-        <v>4204883.0</v>
+        <v>1242662.0</v>
       </c>
       <c r="G29" s="2">
-        <v>2036139.0</v>
+        <v>471.573</v>
       </c>
       <c r="H29" s="2">
-        <v>45704.0</v>
+        <v>36158.0</v>
       </c>
       <c r="I29" s="2">
-        <v>202.0</v>
+        <v>74.0</v>
       </c>
       <c r="J29" s="1">
-        <v>24.0</v>
+        <v>17.0</v>
       </c>
       <c r="K29" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="L29" s="1">
-        <v>21.0</v>
+        <v>15.0</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1979,38 +2008,41 @@
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2">
-        <v>3051754.0</v>
+      <c r="B30" s="1">
+        <v>2409921.0</v>
       </c>
       <c r="C30" s="2">
-        <v>1566691.0</v>
+        <v>1359963.0</v>
       </c>
       <c r="D30" s="2">
-        <v>1485063.0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>995721.0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1458038.0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>597996.0</v>
+        <v>1298035.0</v>
+      </c>
+      <c r="E30" s="1">
+        <f>103469+190644+206974+235729</f>
+        <v>736816</v>
+      </c>
+      <c r="F30" s="1">
+        <f>230819+218184+195084+184909+198287+202641</f>
+        <v>1229924</v>
+      </c>
+      <c r="G30" s="1">
+        <f>186386+154269+118485+96609+62929+72580</f>
+        <v>691258</v>
       </c>
       <c r="H30" s="2">
-        <v>61237.0</v>
+        <v>14511.0</v>
       </c>
       <c r="I30" s="2">
-        <v>50.0</v>
+        <v>183.0</v>
       </c>
       <c r="J30" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="K30" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="L30" s="1">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -2032,37 +2064,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>2679179.0</v>
+        <v>5604457.0</v>
       </c>
       <c r="C31" s="2">
-        <v>1357522.0</v>
+        <v>2815871.0</v>
       </c>
       <c r="D31" s="2">
-        <v>1321657.0</v>
+        <v>2788586.0</v>
       </c>
       <c r="E31" s="2">
-        <v>964943.0</v>
+        <v>1820822.0</v>
       </c>
       <c r="F31" s="2">
-        <v>1242662.0</v>
+        <v>2527611.0</v>
       </c>
       <c r="G31" s="2">
-        <v>471.573</v>
+        <v>1256024.0</v>
       </c>
       <c r="H31" s="2">
-        <v>36158.0</v>
+        <v>42137.0</v>
       </c>
       <c r="I31" s="2">
-        <v>74.0</v>
+        <v>113.0</v>
       </c>
       <c r="J31" s="1">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="K31" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="L31" s="1">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2083,41 +2115,38 @@
       <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="1">
-        <v>2409921.0</v>
+      <c r="B32" s="2">
+        <v>8565814.0</v>
       </c>
       <c r="C32" s="2">
-        <v>1359963.0</v>
+        <v>4364258.0</v>
       </c>
       <c r="D32" s="2">
-        <v>1298035.0</v>
-      </c>
-      <c r="E32" s="1">
-        <f>103469+190644+206974+235729</f>
-        <v>736816</v>
-      </c>
-      <c r="F32" s="1">
-        <f>230819+218184+195084+184909+198287+202641</f>
-        <v>1229924</v>
-      </c>
-      <c r="G32" s="1">
-        <f>186386+154269+118485+96609+62929+72580</f>
-        <v>691258</v>
+        <v>4201556.0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2765432.0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4060139.0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1740252.0</v>
       </c>
       <c r="H32" s="2">
-        <v>14511.0</v>
+        <v>86769.0</v>
       </c>
       <c r="I32" s="2">
-        <v>183.0</v>
+        <v>99.0</v>
       </c>
       <c r="J32" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K32" s="1">
         <v>4.0</v>
       </c>
       <c r="L32" s="1">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -2139,37 +2168,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>5604457.0</v>
+        <v>1.5242297E7</v>
       </c>
       <c r="C33" s="2">
-        <v>2815871.0</v>
+        <v>7638329.0</v>
       </c>
       <c r="D33" s="2">
-        <v>2788586.0</v>
+        <v>7603968.0</v>
       </c>
       <c r="E33" s="2">
-        <v>1820822.0</v>
+        <v>5087744.0</v>
       </c>
       <c r="F33" s="2">
-        <v>2527611.0</v>
+        <v>7070987.0</v>
       </c>
       <c r="G33" s="2">
-        <v>1256024.0</v>
+        <v>3083565.0</v>
       </c>
       <c r="H33" s="2">
-        <v>42137.0</v>
+        <v>72460.0</v>
       </c>
       <c r="I33" s="2">
-        <v>113.0</v>
+        <v>210.0</v>
       </c>
       <c r="J33" s="1">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="K33" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="L33" s="1">
-        <v>12.0</v>
+        <v>25.0</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2186,137 +2215,193 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="4" t="s">
+    <row r="34">
+      <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="2">
-        <v>8565814.0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4364258.0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4201556.0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2765432.0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>4060139.0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1740252.0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>86769.0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>99.0</v>
-      </c>
-      <c r="J34" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="K34" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="B34" s="6">
+        <v>1150468.0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>599890.0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>550578.0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>400408.0</v>
+      </c>
+      <c r="F34" s="6">
+        <v>478467.0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>167822.0</v>
+      </c>
+      <c r="H34" s="6">
+        <v>99505.0</v>
+      </c>
+      <c r="I34" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="J34" s="6">
         <v>13.0</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="K34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="L34" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="2">
-        <v>1.5242297E7</v>
-      </c>
-      <c r="C35" s="2">
-        <v>7638329.0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7603968.0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5087744.0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>7070987.0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>3083565.0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>72460.0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>210.0</v>
-      </c>
-      <c r="J35" s="1">
-        <v>33.0</v>
-      </c>
-      <c r="K35" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="L35" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="B35" s="9">
+        <v>4313086.0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2289328.0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2023758.0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1188370.0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>2407288.0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>272362.0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>312767.0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
       <c r="A71" s="3"/>
@@ -28246,90 +28331,6 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
-      <c r="A997" s="3"/>
-      <c r="B997" s="3"/>
-      <c r="C997" s="3"/>
-      <c r="D997" s="3"/>
-      <c r="E997" s="3"/>
-      <c r="F997" s="3"/>
-      <c r="G997" s="3"/>
-      <c r="H997" s="3"/>
-      <c r="I997" s="3"/>
-      <c r="J997" s="3"/>
-      <c r="K997" s="3"/>
-      <c r="L997" s="3"/>
-      <c r="M997" s="3"/>
-      <c r="N997" s="3"/>
-      <c r="O997" s="3"/>
-      <c r="P997" s="3"/>
-      <c r="Q997" s="3"/>
-      <c r="R997" s="3"/>
-      <c r="S997" s="3"/>
-      <c r="T997" s="3"/>
-      <c r="U997" s="3"/>
-      <c r="V997" s="3"/>
-      <c r="W997" s="3"/>
-      <c r="X997" s="3"/>
-      <c r="Y997" s="3"/>
-      <c r="Z997" s="3"/>
-    </row>
-    <row r="998" ht="14.25" customHeight="1">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
-    <row r="999" ht="14.25" customHeight="1">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/praktikum-pda/data_populasi_2021.xlsx
+++ b/praktikum-pda/data_populasi_2021.xlsx
@@ -4,19 +4,20 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="2021" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="province" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhtX8/NDxlvD4TiXR5d58Rp3L7EeA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhomRYh1mD5Idx8khPQjHoULdxGOg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>province</t>
   </si>
@@ -245,6 +246,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -28337,4 +28342,302 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5347889.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4279129.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1461893.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.2030892E7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2037019.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3677446.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.1261595E7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1200663.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3603439.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.8220094E7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.7313063E7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.1063094E7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5466942.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4119824.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2656442.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3849832.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5466942.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8109601.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1880666.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1323927.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5432209.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5489851.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6574932.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2082785.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1442225.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9218736.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3051754.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2679179.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2409921.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5604457.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8565814.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.5242297E7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1150468.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="9">
+        <v>4313086.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/praktikum-pda/data_populasi_2021.xlsx
+++ b/praktikum-pda/data_populasi_2021.xlsx
@@ -153,10 +153,10 @@
     <t>SUMATERA UTARA</t>
   </si>
   <si>
-    <t>IRIAN JAYA BARAT</t>
+    <t>PAPUA BARAT</t>
   </si>
   <si>
-    <t>IRIAN JAYA TIMUR</t>
+    <t>PAPUA</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -236,6 +236,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -2304,106 +2307,106 @@
       <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>1150468.0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>599890.0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>550578.0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>400408.0</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>478467.0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>167822.0</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <v>99505.0</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="8">
         <v>12.0</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="8">
         <v>13.0</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="8">
         <v>1.0</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="8">
         <v>12.0</v>
       </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="Z34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="5">
         <v>44561.0</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="10">
         <v>4313086.0</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>2289328.0</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="10">
         <v>2023758.0</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="10">
         <v>1188370.0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="10">
         <v>2407288.0</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="10">
         <v>272362.0</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="10">
         <v>312767.0</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="10">
         <v>14.0</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="10">
         <v>29.0</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L35" s="10">
         <v>1.0</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="10">
         <v>28.0</v>
       </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" s="4"/>
